--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44841</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>45145</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43431</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43432</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43456</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43469</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43487</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43497</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43508</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43517</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43612</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43619</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43675</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43677</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43697</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43712</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43735</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43775</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43776</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43801</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43838</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43843</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43867</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43887</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43944</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43992</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44057</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44069</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44076</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44095</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44110</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44112</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44124</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44130</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44143</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44187</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44254</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44260</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44263</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44266</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44271</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44280</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44344</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44354</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44381</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44400</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44412</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>44420</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44437</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>44441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>44445</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>44451</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>44455</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>44460</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>44462</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>44467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>44482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>44485</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44508</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44509</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44534</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44564</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44565</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44571</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44586</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44600</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>44602</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44641</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44671</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>44673</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44697</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44724</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44744</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44790</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44802</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>44810</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>44811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>44812</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44813</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13841,7 +13841,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2453,14 +2453,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 44958-2022</t>
+          <t>A 38452-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44841</v>
+        <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2474,20 +2474,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>25</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2512,45 +2512,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 44958-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 38452-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 44958-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 38452-2022.png")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 44958-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 38452-2022.docx")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 44958-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 38452-2022.docx")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 44958-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 38452-2022.docx")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 44958-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 38452-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 35155-2023</t>
+          <t>A 44958-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45145</v>
+        <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2562,18 +2562,23 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
@@ -2587,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2597,45 +2602,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 35155-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 44958-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 35155-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 44958-2022.png")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 35155-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 44958-2022.docx")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 35155-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 44958-2022.docx")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 35155-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 44958-2022.docx")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 35155-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 44958-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 64588-2018</t>
+          <t>A 35155-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43431</v>
+        <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2648,10 +2653,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2678,21 +2683,49 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 35155-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 35155-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 35155-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 35155-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 35155-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 35155-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 65235-2018</t>
+          <t>A 64588-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43432</v>
+        <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2705,7 +2738,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2742,14 +2775,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 65232-2018</t>
+          <t>A 65235-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2762,7 +2795,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2799,14 +2832,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 67508-2018</t>
+          <t>A 65232-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43439</v>
+        <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2819,7 +2852,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2856,14 +2889,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 67595-2018</t>
+          <t>A 67508-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2876,7 +2909,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2913,14 +2946,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 72321-2018</t>
+          <t>A 67595-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43456</v>
+        <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2933,7 +2966,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2970,14 +3003,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 72323-2018</t>
+          <t>A 72321-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2990,7 +3023,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3027,14 +3060,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 568-2019</t>
+          <t>A 72323-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43469</v>
+        <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3047,7 +3080,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>12.4</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3084,14 +3117,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 4069-2019</t>
+          <t>A 568-2019</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43482</v>
+        <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3104,7 +3137,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6.5</v>
+        <v>12.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3141,14 +3174,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 4922-2019</t>
+          <t>A 4069-2019</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43487</v>
+        <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3160,13 +3193,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3203,14 +3231,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 7419-2019</t>
+          <t>A 4922-2019</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43497</v>
+        <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3222,8 +3250,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3260,14 +3293,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 9641-2019</t>
+          <t>A 7419-2019</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43508</v>
+        <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3280,7 +3313,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>21.7</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3317,14 +3350,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 9556-2019</t>
+          <t>A 9641-2019</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3337,7 +3370,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>21.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3374,14 +3407,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 11400-2019</t>
+          <t>A 9556-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43517</v>
+        <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3394,7 +3427,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3431,14 +3464,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 11388-2019</t>
+          <t>A 11400-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3451,7 +3484,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3488,14 +3521,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 12603-2019</t>
+          <t>A 11388-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43524</v>
+        <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3508,7 +3541,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>10.4</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3545,14 +3578,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 15475-2019</t>
+          <t>A 12603-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43542</v>
+        <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3564,13 +3597,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>4.2</v>
+        <v>10.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3607,14 +3635,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 24657-2019</t>
+          <t>A 15475-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43601</v>
+        <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3626,8 +3654,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3664,14 +3697,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 26566-2019</t>
+          <t>A 24657-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43612</v>
+        <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3684,7 +3717,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3721,14 +3754,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 27505-2019</t>
+          <t>A 26566-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43619</v>
+        <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3740,13 +3773,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3783,14 +3811,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 27502-2019</t>
+          <t>A 27505-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3808,7 +3836,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3845,14 +3873,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 31662-2019</t>
+          <t>A 27502-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43642</v>
+        <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3864,8 +3892,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3902,14 +3935,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 36882-2019</t>
+          <t>A 31662-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43675</v>
+        <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3922,7 +3955,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3959,14 +3992,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 37227-2019</t>
+          <t>A 36882-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43677</v>
+        <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3979,7 +4012,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4016,14 +4049,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 39083-2019</t>
+          <t>A 37227-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43689</v>
+        <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4036,7 +4069,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4073,14 +4106,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 39090-2019</t>
+          <t>A 39083-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4093,7 +4126,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>6.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4130,14 +4163,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 41065-2019</t>
+          <t>A 39090-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43697</v>
+        <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4149,13 +4182,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4192,14 +4220,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 42669-2019</t>
+          <t>A 41065-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43704</v>
+        <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4211,8 +4239,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4249,14 +4282,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 44921-2019</t>
+          <t>A 42669-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43712</v>
+        <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4269,7 +4302,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4306,14 +4339,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 45306-2019</t>
+          <t>A 44921-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43713</v>
+        <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4326,7 +4359,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4363,14 +4396,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 49130-2019</t>
+          <t>A 45306-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43731</v>
+        <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4382,13 +4415,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4425,14 +4453,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 49131-2019</t>
+          <t>A 49130-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4450,7 +4478,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4487,14 +4515,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 50435-2019</t>
+          <t>A 49131-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43735</v>
+        <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4506,8 +4534,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4544,14 +4577,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 50443-2019</t>
+          <t>A 50435-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4564,7 +4597,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4601,14 +4634,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 50396-2019</t>
+          <t>A 50443-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4621,7 +4654,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4658,14 +4691,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 50419-2019</t>
+          <t>A 50396-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4678,7 +4711,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4715,14 +4748,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 50425-2019</t>
+          <t>A 50419-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4735,7 +4768,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4772,14 +4805,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 50389-2019</t>
+          <t>A 50425-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4792,7 +4825,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.9</v>
+        <v>3.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4829,14 +4862,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 50441-2019</t>
+          <t>A 50389-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4849,7 +4882,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>5.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4886,14 +4919,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 50446-2019</t>
+          <t>A 50441-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4943,14 +4976,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 55870-2019</t>
+          <t>A 50446-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43759</v>
+        <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4963,7 +4996,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5000,14 +5033,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 55848-2019</t>
+          <t>A 55870-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5057,14 +5090,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 55974-2019</t>
+          <t>A 55848-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5077,7 +5110,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5114,14 +5147,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 55965-2019</t>
+          <t>A 55974-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5134,7 +5167,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5171,14 +5204,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 55866-2019</t>
+          <t>A 55965-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5191,7 +5224,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5228,14 +5261,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 55980-2019</t>
+          <t>A 55866-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5248,7 +5281,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.4</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5285,14 +5318,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 59155-2019</t>
+          <t>A 55980-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43775</v>
+        <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5304,13 +5337,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5347,14 +5375,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 59790-2019</t>
+          <t>A 59155-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43776</v>
+        <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5366,8 +5394,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5404,14 +5437,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 64995-2019</t>
+          <t>A 59790-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43801</v>
+        <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5424,7 +5457,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>6.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5461,14 +5494,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 64938-2019</t>
+          <t>A 64995-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5481,7 +5514,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5518,14 +5551,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 630-2020</t>
+          <t>A 64938-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43838</v>
+        <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5538,7 +5571,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5575,14 +5608,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 2559-2020</t>
+          <t>A 630-2020</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43843</v>
+        <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5595,7 +5628,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5632,14 +5665,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 1811-2020</t>
+          <t>A 2559-2020</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43844</v>
+        <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5652,7 +5685,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5689,14 +5722,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 6707-2020</t>
+          <t>A 1811-2020</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43867</v>
+        <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5709,7 +5742,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5746,14 +5779,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 8366-2020</t>
+          <t>A 6707-2020</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43875</v>
+        <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5766,7 +5799,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5803,14 +5836,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 10551-2020</t>
+          <t>A 8366-2020</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43887</v>
+        <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5823,7 +5856,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5860,14 +5893,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 20196-2020</t>
+          <t>A 10551-2020</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43944</v>
+        <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5880,7 +5913,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5917,14 +5950,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 27278-2020</t>
+          <t>A 20196-2020</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43992</v>
+        <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5937,7 +5970,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5974,14 +6007,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 38010-2020</t>
+          <t>A 27278-2020</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44057</v>
+        <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5994,7 +6027,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6031,14 +6064,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 41080-2020</t>
+          <t>A 38010-2020</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44069</v>
+        <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6051,7 +6084,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>19</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6088,14 +6121,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 43237-2020</t>
+          <t>A 41080-2020</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44076</v>
+        <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6107,13 +6140,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>19</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6150,14 +6178,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 44577-2020</t>
+          <t>A 43237-2020</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44085</v>
+        <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6169,8 +6197,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6207,14 +6240,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 46661-2020</t>
+          <t>A 44577-2020</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44095</v>
+        <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6227,7 +6260,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6264,14 +6297,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 46899-2020</t>
+          <t>A 46661-2020</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6284,7 +6317,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6321,14 +6354,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 49938-2020</t>
+          <t>A 46899-2020</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44109</v>
+        <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6340,13 +6373,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6383,14 +6411,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 50523-2020</t>
+          <t>A 49938-2020</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6402,8 +6430,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6440,14 +6473,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 50529-2020</t>
+          <t>A 50523-2020</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6460,7 +6493,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6497,14 +6530,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 50524-2020</t>
+          <t>A 50529-2020</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6517,7 +6550,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6554,14 +6587,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 50520-2020</t>
+          <t>A 50524-2020</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6574,7 +6607,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6611,14 +6644,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 50527-2020</t>
+          <t>A 50520-2020</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6631,7 +6664,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6668,14 +6701,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 51203-2020</t>
+          <t>A 50527-2020</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6688,7 +6721,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6725,14 +6758,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 53750-2020</t>
+          <t>A 51203-2020</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44124</v>
+        <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6745,7 +6778,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6782,14 +6815,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 55464-2020</t>
+          <t>A 53750-2020</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44130</v>
+        <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6802,7 +6835,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6839,14 +6872,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 55466-2020</t>
+          <t>A 55464-2020</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6859,7 +6892,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6896,14 +6929,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 57992-2020</t>
+          <t>A 55466-2020</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44143</v>
+        <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6916,7 +6949,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>6.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6953,14 +6986,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 68721-2020</t>
+          <t>A 57992-2020</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44187</v>
+        <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6973,7 +7006,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7010,14 +7043,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 9986-2021</t>
+          <t>A 68721-2020</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44254</v>
+        <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7030,7 +7063,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7067,14 +7100,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 11126-2021</t>
+          <t>A 9986-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44260</v>
+        <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7087,7 +7120,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7124,14 +7157,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 11360-2021</t>
+          <t>A 11126-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44263</v>
+        <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7144,7 +7177,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>6</v>
+        <v>0.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7181,14 +7214,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 11368-2021</t>
+          <t>A 11360-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7201,7 +7234,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7238,14 +7271,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 11361-2021</t>
+          <t>A 11368-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7258,7 +7291,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7295,14 +7328,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 12126-2021</t>
+          <t>A 11361-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44266</v>
+        <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7315,7 +7348,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7352,14 +7385,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 12901-2021</t>
+          <t>A 12126-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44271</v>
+        <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7372,7 +7405,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7409,14 +7442,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 14635-2021</t>
+          <t>A 12901-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7429,7 +7462,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7466,14 +7499,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 14664-2021</t>
+          <t>A 14635-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7486,7 +7519,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7523,14 +7556,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 25873-2021</t>
+          <t>A 14664-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44344</v>
+        <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7543,7 +7576,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>7.3</v>
+        <v>2.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7580,14 +7613,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 25871-2021</t>
+          <t>A 25873-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7600,7 +7633,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>13</v>
+        <v>7.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7637,14 +7670,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 27715-2021</t>
+          <t>A 25871-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44354</v>
+        <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7656,13 +7689,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7699,14 +7727,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 27747-2021</t>
+          <t>A 27715-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7724,7 +7752,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7761,14 +7789,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 27769-2021</t>
+          <t>A 27747-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7786,7 +7814,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7823,14 +7851,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 27739-2021</t>
+          <t>A 27769-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7848,7 +7876,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7885,14 +7913,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 27750-2021</t>
+          <t>A 27739-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7910,7 +7938,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7947,14 +7975,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 27771-2021</t>
+          <t>A 27750-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7972,7 +8000,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>7.9</v>
+        <v>1.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8009,14 +8037,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 27706-2021</t>
+          <t>A 27771-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8034,7 +8062,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8071,14 +8099,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 27740-2021</t>
+          <t>A 27706-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8124,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8133,14 +8161,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 27753-2021</t>
+          <t>A 27740-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8158,7 +8186,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8195,14 +8223,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 28136-2021</t>
+          <t>A 27753-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8216,11 +8244,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8257,14 +8285,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 34450-2021</t>
+          <t>A 28136-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44381</v>
+        <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8276,8 +8304,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8314,14 +8347,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 37676-2021</t>
+          <t>A 34450-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44400</v>
+        <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8333,13 +8366,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>7.1</v>
+        <v>2.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8376,14 +8404,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 37681-2021</t>
+          <t>A 37676-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8401,7 +8429,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.6</v>
+        <v>7.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8438,14 +8466,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 39133-2021</t>
+          <t>A 37681-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44412</v>
+        <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8457,8 +8485,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8495,14 +8528,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 40751-2021</t>
+          <t>A 39133-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44420</v>
+        <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8515,7 +8548,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8552,14 +8585,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 44650-2021</t>
+          <t>A 40751-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44437</v>
+        <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8572,7 +8605,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8609,14 +8642,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 45674-2021</t>
+          <t>A 44650-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44441</v>
+        <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8629,7 +8662,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8666,14 +8699,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46671-2021</t>
+          <t>A 45674-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44445</v>
+        <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8686,7 +8719,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8723,14 +8756,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 48387-2021</t>
+          <t>A 46671-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44451</v>
+        <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8743,7 +8776,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>8.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8780,14 +8813,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 50059-2021</t>
+          <t>A 48387-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44455</v>
+        <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8800,7 +8833,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8837,14 +8870,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 51482-2021</t>
+          <t>A 50059-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44460</v>
+        <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8857,7 +8890,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8894,14 +8927,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 51454-2021</t>
+          <t>A 51482-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8914,7 +8947,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8951,14 +8984,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 52214-2021</t>
+          <t>A 51454-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44462</v>
+        <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8971,7 +9004,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9008,14 +9041,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 53042-2021</t>
+          <t>A 52214-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44467</v>
+        <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9028,7 +9061,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9065,14 +9098,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 57039-2021</t>
+          <t>A 53042-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44482</v>
+        <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9085,7 +9118,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.8</v>
+        <v>6.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9122,14 +9155,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 57884-2021</t>
+          <t>A 57039-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44485</v>
+        <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9142,7 +9175,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9179,14 +9212,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 59235-2021</t>
+          <t>A 57884-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44490</v>
+        <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9199,7 +9232,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9236,14 +9269,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 63644-2021</t>
+          <t>A 59235-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44508</v>
+        <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9256,7 +9289,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9293,14 +9326,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 64111-2021</t>
+          <t>A 63644-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9313,7 +9346,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9350,14 +9383,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 70201-2021</t>
+          <t>A 64111-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44534</v>
+        <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9370,7 +9403,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9407,14 +9440,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 314-2022</t>
+          <t>A 70201-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44564</v>
+        <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9427,7 +9460,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9464,14 +9497,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 386-2022</t>
+          <t>A 314-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44565</v>
+        <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9484,7 +9517,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>6.1</v>
+        <v>3.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9521,14 +9554,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 1016-2022</t>
+          <t>A 386-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44571</v>
+        <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9541,7 +9574,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.4</v>
+        <v>6.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9578,14 +9611,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 3596-2022</t>
+          <t>A 1016-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44586</v>
+        <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9598,7 +9631,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9635,14 +9668,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 3585-2022</t>
+          <t>A 3596-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9655,7 +9688,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9692,14 +9725,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 6295-2022</t>
+          <t>A 3585-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44600</v>
+        <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9712,7 +9745,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>11.4</v>
+        <v>4.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9749,14 +9782,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 6886-2022</t>
+          <t>A 6295-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44602</v>
+        <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9769,7 +9802,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>11.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9806,14 +9839,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 6740-2022</t>
+          <t>A 6886-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9826,7 +9859,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>7.1</v>
+        <v>1.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9863,14 +9896,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 12691-2022</t>
+          <t>A 6740-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44641</v>
+        <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9882,13 +9915,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>3.6</v>
+        <v>7.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9925,14 +9953,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 16433-2022</t>
+          <t>A 12691-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44671</v>
+        <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9944,8 +9972,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9982,14 +10015,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 16437-2022</t>
+          <t>A 16433-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10039,14 +10072,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 16724-2022</t>
+          <t>A 16437-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44673</v>
+        <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10058,13 +10091,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10101,14 +10129,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 20016-2022</t>
+          <t>A 16724-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44697</v>
+        <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10120,8 +10148,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10158,14 +10191,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 24034-2022</t>
+          <t>A 20016-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44724</v>
+        <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10215,14 +10248,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 26812-2022</t>
+          <t>A 24034-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44740</v>
+        <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10235,7 +10268,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10272,14 +10305,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 27972-2022</t>
+          <t>A 26812-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44744</v>
+        <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10292,7 +10325,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10329,14 +10362,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 27970-2022</t>
+          <t>A 27972-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10349,7 +10382,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10386,14 +10419,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 27969-2022</t>
+          <t>A 27970-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10406,7 +10439,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10443,14 +10476,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 27971-2022</t>
+          <t>A 27969-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10463,7 +10496,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10500,14 +10533,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 33902-2022</t>
+          <t>A 27971-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44790</v>
+        <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10520,7 +10553,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10557,14 +10590,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 35882-2022</t>
+          <t>A 33902-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44802</v>
+        <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10577,7 +10610,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>10.8</v>
+        <v>1.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10614,14 +10647,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 35918-2022</t>
+          <t>A 35882-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10634,7 +10667,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.1</v>
+        <v>10.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10671,14 +10704,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 36113-2022</t>
+          <t>A 35918-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10691,7 +10724,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10728,14 +10761,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 35942-2022</t>
+          <t>A 36113-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10748,7 +10781,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10785,14 +10818,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 36112-2022</t>
+          <t>A 35942-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10805,7 +10838,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>7.3</v>
+        <v>0.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10842,14 +10875,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 35906-2022</t>
+          <t>A 36112-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10862,7 +10895,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.9</v>
+        <v>7.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10899,14 +10932,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 37842-2022</t>
+          <t>A 35906-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44810</v>
+        <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10919,7 +10952,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.3</v>
+        <v>3.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10956,14 +10989,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 37843-2022</t>
+          <t>A 37842-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10976,7 +11009,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>5.5</v>
+        <v>0.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11013,14 +11046,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 37844-2022</t>
+          <t>A 37843-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11033,7 +11066,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11070,14 +11103,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 38079-2022</t>
+          <t>A 37844-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44811</v>
+        <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11090,7 +11123,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11127,14 +11160,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 38250-2022</t>
+          <t>A 38079-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44812</v>
+        <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11147,7 +11180,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11184,14 +11217,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 38452-2022</t>
+          <t>A 38250-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44813</v>
+        <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11203,13 +11236,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>25</v>
+        <v>1.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11253,7 +11281,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11310,7 +11338,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11367,7 +11395,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11429,7 +11457,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11491,7 +11519,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11553,7 +11581,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11615,7 +11643,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11677,7 +11705,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11734,7 +11762,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11791,7 +11819,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11853,7 +11881,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11915,7 +11943,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11977,7 +12005,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12039,7 +12067,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12096,7 +12124,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12158,7 +12186,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12215,7 +12243,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12277,7 +12305,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12334,7 +12362,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12391,7 +12419,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12448,7 +12476,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12505,7 +12533,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12567,7 +12595,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12624,7 +12652,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12681,7 +12709,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12738,7 +12766,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12800,7 +12828,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12862,7 +12890,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12924,7 +12952,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12981,7 +13009,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13038,7 +13066,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13095,7 +13123,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13152,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13209,7 +13237,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13266,7 +13294,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13323,7 +13351,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13380,7 +13408,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13437,7 +13465,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13494,7 +13522,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13551,7 +13579,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13608,7 +13636,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13665,7 +13693,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13722,7 +13750,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13784,7 +13812,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13841,7 +13869,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13903,7 +13931,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13965,7 +13993,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14027,7 +14055,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14084,7 +14112,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14141,7 +14169,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14198,7 +14226,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -641,27 +641,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 59863-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 59863-2022.xlsx", "A 59863-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 59863-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 59863-2022.png", "A 59863-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 59863-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 59863-2022.docx", "A 59863-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 59863-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 59863-2022.docx", "A 59863-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 59863-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 59863-2022.docx", "A 59863-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 59863-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 59863-2022.docx", "A 59863-2022")</f>
         <v/>
       </c>
     </row>
@@ -675,7 +675,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -738,27 +738,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 27838-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 27838-2021.xlsx", "A 27838-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 27838-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 27838-2021.png", "A 27838-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 27838-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 27838-2021.docx", "A 27838-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 27838-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 27838-2021.docx", "A 27838-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 27838-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 27838-2021.docx", "A 27838-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 27838-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 27838-2021.docx", "A 27838-2021")</f>
         <v/>
       </c>
     </row>
@@ -772,7 +772,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,27 +829,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 12772-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 12772-2021.xlsx", "A 12772-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 12772-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 12772-2021.png", "A 12772-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 12772-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 12772-2021.docx", "A 12772-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 12772-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 12772-2021.docx", "A 12772-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 12772-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 12772-2021.docx", "A 12772-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 12772-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 12772-2021.docx", "A 12772-2021")</f>
         <v/>
       </c>
     </row>
@@ -863,7 +863,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,27 +923,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 37679-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 37679-2021.xlsx", "A 37679-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 37679-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 37679-2021.png", "A 37679-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 37679-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 37679-2021.docx", "A 37679-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 37679-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 37679-2021.docx", "A 37679-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 37679-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 37679-2021.docx", "A 37679-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 37679-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 37679-2021.docx", "A 37679-2021")</f>
         <v/>
       </c>
     </row>
@@ -957,7 +957,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,31 +1016,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 4384-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 4384-2022.xlsx", "A 4384-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 4384-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 4384-2022.png", "A 4384-2022")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/knärot/A 4384-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/knärot/A 4384-2022.png", "A 4384-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 4384-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 4384-2022.docx", "A 4384-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 4384-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 4384-2022.docx", "A 4384-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 4384-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 4384-2022.docx", "A 4384-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 4384-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 4384-2022.docx", "A 4384-2022")</f>
         <v/>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,27 +1108,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 14771-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 14771-2022.xlsx", "A 14771-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 14771-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 14771-2022.png", "A 14771-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 14771-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 14771-2022.docx", "A 14771-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 14771-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 14771-2022.docx", "A 14771-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 14771-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 14771-2022.docx", "A 14771-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 14771-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 14771-2022.docx", "A 14771-2022")</f>
         <v/>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,27 +1195,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 59655-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 59655-2019.xlsx", "A 59655-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 59655-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 59655-2019.png", "A 59655-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 59655-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 59655-2019.docx", "A 59655-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 59655-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 59655-2019.docx", "A 59655-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 59655-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 59655-2019.docx", "A 59655-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 59655-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 59655-2019.docx", "A 59655-2019")</f>
         <v/>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,27 +1282,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 46303-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 46303-2020.xlsx", "A 46303-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 46303-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 46303-2020.png", "A 46303-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 46303-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 46303-2020.docx", "A 46303-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 46303-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 46303-2020.docx", "A 46303-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 46303-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 46303-2020.docx", "A 46303-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 46303-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 46303-2020.docx", "A 46303-2020")</f>
         <v/>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,27 +1374,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 32041-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 32041-2023.xlsx", "A 32041-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 32041-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 32041-2023.png", "A 32041-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 32041-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 32041-2023.docx", "A 32041-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 32041-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 32041-2023.docx", "A 32041-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 32041-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 32041-2023.docx", "A 32041-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 32041-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 32041-2023.docx", "A 32041-2023")</f>
         <v/>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1460,31 +1460,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 46237-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 46237-2020.xlsx", "A 46237-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 46237-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 46237-2020.png", "A 46237-2020")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/knärot/A 46237-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/knärot/A 46237-2020.png", "A 46237-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 46237-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 46237-2020.docx", "A 46237-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 46237-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 46237-2020.docx", "A 46237-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 46237-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 46237-2020.docx", "A 46237-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 46237-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 46237-2020.docx", "A 46237-2020")</f>
         <v/>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,27 +1550,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 17648-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 17648-2021.xlsx", "A 17648-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 17648-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 17648-2021.png", "A 17648-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 17648-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 17648-2021.docx", "A 17648-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 17648-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 17648-2021.docx", "A 17648-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 17648-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 17648-2021.docx", "A 17648-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 17648-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 17648-2021.docx", "A 17648-2021")</f>
         <v/>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1641,27 +1641,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 52046-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 52046-2022.xlsx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 52046-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 52046-2022.png", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 52046-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 52046-2022.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 52046-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 52046-2022.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 52046-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 52046-2022.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 52046-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 52046-2022.docx", "A 52046-2022")</f>
         <v/>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,27 +1727,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 35937-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 35937-2023.xlsx", "A 35937-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 35937-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 35937-2023.png", "A 35937-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 35937-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 35937-2023.docx", "A 35937-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 35937-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 35937-2023.docx", "A 35937-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 35937-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 35937-2023.docx", "A 35937-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 35937-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 35937-2023.docx", "A 35937-2023")</f>
         <v/>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1812,27 +1812,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 41122-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 41122-2018.xlsx", "A 41122-2018")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 41122-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 41122-2018.png", "A 41122-2018")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 41122-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 41122-2018.docx", "A 41122-2018")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 41122-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 41122-2018.docx", "A 41122-2018")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 41122-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 41122-2018.docx", "A 41122-2018")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 41122-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 41122-2018.docx", "A 41122-2018")</f>
         <v/>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1902,27 +1902,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 27513-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 27513-2019.xlsx", "A 27513-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 27513-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 27513-2019.png", "A 27513-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 27513-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 27513-2019.docx", "A 27513-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 27513-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 27513-2019.docx", "A 27513-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 27513-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 27513-2019.docx", "A 27513-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 27513-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 27513-2019.docx", "A 27513-2019")</f>
         <v/>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1987,31 +1987,31 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 59643-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 59643-2019.xlsx", "A 59643-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 59643-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 59643-2019.png", "A 59643-2019")</f>
         <v/>
       </c>
       <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/knärot/A 59643-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/knärot/A 59643-2019.png", "A 59643-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 59643-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 59643-2019.docx", "A 59643-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 59643-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 59643-2019.docx", "A 59643-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 59643-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 59643-2019.docx", "A 59643-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 59643-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 59643-2019.docx", "A 59643-2019")</f>
         <v/>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,27 +2076,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 12832-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 12832-2020.xlsx", "A 12832-2020")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 12832-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 12832-2020.png", "A 12832-2020")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 12832-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 12832-2020.docx", "A 12832-2020")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 12832-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 12832-2020.docx", "A 12832-2020")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 12832-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 12832-2020.docx", "A 12832-2020")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 12832-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 12832-2020.docx", "A 12832-2020")</f>
         <v/>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2166,27 +2166,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 27757-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 27757-2021.xlsx", "A 27757-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 27757-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 27757-2021.png", "A 27757-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 27757-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 27757-2021.docx", "A 27757-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 27757-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 27757-2021.docx", "A 27757-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 27757-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 27757-2021.docx", "A 27757-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 27757-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 27757-2021.docx", "A 27757-2021")</f>
         <v/>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2256,27 +2256,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 37678-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 37678-2021.xlsx", "A 37678-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 37678-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 37678-2021.png", "A 37678-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 37678-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 37678-2021.docx", "A 37678-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 37678-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 37678-2021.docx", "A 37678-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 37678-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 37678-2021.docx", "A 37678-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 37678-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 37678-2021.docx", "A 37678-2021")</f>
         <v/>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,27 +2341,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 55263-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 55263-2021.xlsx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 55263-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 55263-2021.png", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 55263-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 55263-2021.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 55263-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 55263-2021.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 55263-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 55263-2021.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 55263-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 55263-2021.docx", "A 55263-2021")</f>
         <v/>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2426,27 +2426,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 1946-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 1946-2022.xlsx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 1946-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 1946-2022.png", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 1946-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 1946-2022.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 1946-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 1946-2022.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 1946-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 1946-2022.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 1946-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 1946-2022.docx", "A 1946-2022")</f>
         <v/>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2516,27 +2516,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 38452-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 38452-2022.xlsx", "A 38452-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 38452-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 38452-2022.png", "A 38452-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 38452-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 38452-2022.docx", "A 38452-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 38452-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 38452-2022.docx", "A 38452-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 38452-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 38452-2022.docx", "A 38452-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 38452-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 38452-2022.docx", "A 38452-2022")</f>
         <v/>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2606,27 +2606,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 44958-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 44958-2022.xlsx", "A 44958-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 44958-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 44958-2022.png", "A 44958-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 44958-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 44958-2022.docx", "A 44958-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 44958-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 44958-2022.docx", "A 44958-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 44958-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 44958-2022.docx", "A 44958-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 44958-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 44958-2022.docx", "A 44958-2022")</f>
         <v/>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2691,27 +2691,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 35155-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/artfynd/A 35155-2023.xlsx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 35155-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/kartor/A 35155-2023.png", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 35155-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomål/A 35155-2023.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 35155-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/klagomålsmail/A 35155-2023.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 35155-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsyn/A 35155-2023.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 35155-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERTALJE/tillsynsmail/A 35155-2023.docx", "A 35155-2023")</f>
         <v/>
       </c>
     </row>
@@ -2725,7 +2725,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -599,10 +599,10 @@
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -614,23 +614,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
           <t>Grangråticka
 Spricktaggsvamp
+Vågticka
 Dofttaggsvamp
 Grantaggsvamp
 Gul taggsvamp
 Motaggsvamp
 Orange taggsvamp
+Svartvit taggsvamp
 Tallriska
 Blåmossa
 Brandticka
@@ -675,7 +677,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +774,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +865,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +959,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1056,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1144,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1231,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1318,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1410,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1500,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1586,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1677,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1763,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1848,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,7 +1938,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2027,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2112,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2202,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2292,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2377,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2462,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2552,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2640,7 +2642,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2725,7 +2727,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2784,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2839,7 +2841,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2896,7 +2898,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2953,7 +2955,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3010,7 +3012,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3067,7 +3069,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3124,7 +3126,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3181,7 +3183,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3238,7 +3240,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3300,7 +3302,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3357,7 +3359,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,7 +3416,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3471,7 +3473,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3528,7 +3530,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3585,7 +3587,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3642,7 +3644,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3704,7 +3706,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3761,7 +3763,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3818,7 +3820,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3880,7 +3882,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3942,7 +3944,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3999,7 +4001,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4056,7 +4058,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4113,7 +4115,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4170,7 +4172,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4227,7 +4229,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4291,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4348,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4405,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4462,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4522,7 +4524,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4584,7 +4586,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4641,7 +4643,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4698,7 +4700,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4755,7 +4757,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4812,7 +4814,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4869,7 +4871,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4926,7 +4928,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4985,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5040,7 +5042,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5097,7 +5099,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5154,7 +5156,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5211,7 +5213,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5268,7 +5270,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5325,7 +5327,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5382,7 +5384,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5446,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5503,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5560,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5615,7 +5617,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5672,7 +5674,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5729,7 +5731,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5786,7 +5788,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5843,7 +5845,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5900,7 +5902,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5957,7 +5959,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6014,7 +6016,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6071,7 +6073,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6128,7 +6130,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6185,7 +6187,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6247,7 +6249,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6304,7 +6306,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6361,7 +6363,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6418,7 +6420,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6480,7 +6482,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6537,7 +6539,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6594,7 +6596,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6651,7 +6653,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6708,7 +6710,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6765,7 +6767,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6822,7 +6824,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6879,7 +6881,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6936,7 +6938,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6993,7 +6995,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7050,7 +7052,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7107,7 +7109,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7164,7 +7166,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7221,7 +7223,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7278,7 +7280,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7335,7 +7337,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7392,7 +7394,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7449,7 +7451,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7506,7 +7508,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7563,7 +7565,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7620,7 +7622,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7677,7 +7679,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7734,7 +7736,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7796,7 +7798,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7858,7 +7860,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7920,7 +7922,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7982,7 +7984,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8044,7 +8046,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8106,7 +8108,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8168,7 +8170,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8230,7 +8232,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8292,7 +8294,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8354,7 +8356,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8411,7 +8413,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8473,7 +8475,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8535,7 +8537,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8592,7 +8594,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8649,7 +8651,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8706,7 +8708,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8763,7 +8765,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8820,7 +8822,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8877,7 +8879,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8934,7 +8936,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8991,7 +8993,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9048,7 +9050,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9105,7 +9107,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9162,7 +9164,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9219,7 +9221,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9276,7 +9278,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9333,7 +9335,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9390,7 +9392,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9447,7 +9449,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9504,7 +9506,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9561,7 +9563,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9618,7 +9620,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9675,7 +9677,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9732,7 +9734,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9789,7 +9791,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9846,7 +9848,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9903,7 +9905,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9960,7 +9962,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10022,7 +10024,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10079,7 +10081,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10136,7 +10138,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10198,7 +10200,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10255,7 +10257,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10312,7 +10314,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10369,7 +10371,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10426,7 +10428,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10483,7 +10485,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10540,7 +10542,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10597,7 +10599,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10654,7 +10656,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10711,7 +10713,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10768,7 +10770,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10825,7 +10827,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10882,7 +10884,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10939,7 +10941,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10996,7 +10998,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11053,7 +11055,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11110,7 +11112,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11167,7 +11169,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11224,7 +11226,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11281,7 +11283,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11338,7 +11340,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11395,7 +11397,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11457,7 +11459,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11519,7 +11521,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11581,7 +11583,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11643,7 +11645,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11705,7 +11707,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11762,7 +11764,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11819,7 +11821,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11881,7 +11883,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11943,7 +11945,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12005,7 +12007,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12067,7 +12069,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12124,7 +12126,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12186,7 +12188,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12243,7 +12245,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12305,7 +12307,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12362,7 +12364,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12419,7 +12421,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12476,7 +12478,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12533,7 +12535,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12595,7 +12597,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12652,7 +12654,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12711,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12766,7 +12768,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12828,7 +12830,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12890,7 +12892,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12954,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13009,7 +13011,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13066,7 +13068,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13123,7 +13125,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13180,7 +13182,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13237,7 +13239,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13294,7 +13296,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13351,7 +13353,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13408,7 +13410,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13465,7 +13467,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13522,7 +13524,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13579,7 +13581,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13636,7 +13638,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13693,7 +13695,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13750,7 +13752,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13812,7 +13814,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13869,7 +13871,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13931,7 +13933,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13993,7 +13995,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14055,7 +14057,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14112,7 +14114,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14169,7 +14171,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14226,7 +14228,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>44901</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44400</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44589</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44092</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>44868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43348</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>43619</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>43776</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43899</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44354</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44400</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44841</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45145</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43432</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43469</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43497</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43524</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43542</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43612</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43619</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43619</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43675</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43689</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43689</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43697</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43713</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43735</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43735</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43735</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43759</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43759</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43759</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43759</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43759</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43759</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43801</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43843</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43844</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43944</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44076</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>44085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>44096</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44124</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44130</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>44143</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>44187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>44254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>44263</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>44263</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>44271</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>44344</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44354</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>44354</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>44354</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>44354</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44354</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44381</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44400</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44400</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>44412</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44437</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44451</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>44485</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>44490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>44508</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44509</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>44534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44565</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44571</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44586</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44586</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44641</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44697</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>44724</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>44740</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>44744</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>44744</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>44744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>44744</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44790</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44802</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44802</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>44802</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44811</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>44812</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>44824</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>44824</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>44841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>44841</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>44844</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>44855</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>44859</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>44859</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44956</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44964</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45002</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>45009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>45030</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45075</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>45075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>45082</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>45103</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>45103</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>45103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>45104</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45104</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45119</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>45119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>45119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45145</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
